--- a/卒論/グループデータ.xlsx
+++ b/卒論/グループデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7771DD-D2CF-9B42-8A95-195557E7B9F1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D627A-CA09-F646-AB0B-8DBF1541A052}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{2413AD95-1A97-F945-AFA1-D52C16F62E22}"/>
   </bookViews>
@@ -25,177 +25,251 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>独創性</t>
     <rPh sb="0" eb="2">
       <t>ドクソウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>実用性</t>
     <rPh sb="0" eb="2">
       <t>ジツヨウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>総合</t>
     <rPh sb="0" eb="2">
       <t>ソウゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>シスエム有無</t>
     <rPh sb="0" eb="2">
       <t>ウム</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ１</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>無</t>
     <rPh sb="0" eb="1">
       <t>ナシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ２</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>無</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ３</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>有</t>
     <rPh sb="0" eb="1">
       <t>アリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ４</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ５</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ６</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ７</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ８</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ９</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ１０</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ１１</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グループ１２</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>最大値</t>
     <rPh sb="0" eb="2">
       <t>サイダイチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>policy</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>communication</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>visialyze</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>analyze</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>technology</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>平均値</t>
     <rPh sb="0" eb="2">
       <t>ヘイキンチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>communi</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>visualyze</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>システム有り</t>
     <rPh sb="0" eb="1">
       <t>アリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>システム無し</t>
     <rPh sb="0" eb="1">
       <t>ナs</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>合計平均</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>独創性平均</t>
+    <rPh sb="0" eb="2">
+      <t>ドクソウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実用性平均</t>
+    <rPh sb="0" eb="2">
+      <t>ジツヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計平均</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ごうけ</t>
+  </si>
+  <si>
+    <t>最大値平均</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均値平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>独創性分散</t>
+    <rPh sb="0" eb="2">
+      <t>ドクソウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実用性分散</t>
+    <rPh sb="0" eb="2">
+      <t>ジツヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計分散</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,15 +286,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -228,18 +308,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - アクセント 3" xfId="1" builtinId="38"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFC4AC2-BB28-C142-A064-0E867051E0D3}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -642,39 +833,39 @@
         <v>7.3</v>
       </c>
       <c r="G3">
-        <v>4.9000000000000004</v>
+        <v>5.8</v>
       </c>
       <c r="H3">
         <v>8.3000000000000007</v>
       </c>
       <c r="I3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" si="0">SUM(F3:J3)</f>
-        <v>30.7</v>
+        <v>31.199999999999996</v>
       </c>
       <c r="L3">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N3">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P3">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" si="1">SUM(L3:P3)</f>
-        <v>26.3</v>
+        <v>25.599999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="G4">
         <v>6.1</v>
@@ -703,251 +894,251 @@
         <v>6.2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J4">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>27.4</v>
+        <v>28.599999999999998</v>
       </c>
       <c r="L4">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M4">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="N4">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="O4">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>SUM(L5:P5)</f>
+        <v>25.400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5">
         <v>7.3</v>
       </c>
-      <c r="G5">
-        <v>5.8</v>
-      </c>
-      <c r="H5">
+      <c r="G6" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="H6" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="5">
         <v>3.4</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="5">
         <v>6.4</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>31.199999999999996</v>
-      </c>
-      <c r="L5">
-        <v>6.9</v>
-      </c>
-      <c r="M5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N5">
-        <v>5.7</v>
-      </c>
-      <c r="O5">
-        <v>2.9</v>
-      </c>
-      <c r="P5">
-        <v>5.7</v>
-      </c>
-      <c r="Q5">
-        <f>SUM(L5:P5)</f>
-        <v>25.599999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+        <v>31.5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="O6" s="5">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="P6" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" ref="Q6:Q14" si="2">SUM(L6:P6)</f>
+        <v>25.299999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
-        <v>6.1</v>
-      </c>
-      <c r="G6">
-        <v>6.1</v>
-      </c>
-      <c r="H6">
-        <v>6.2</v>
-      </c>
-      <c r="I6">
-        <v>3.5</v>
-      </c>
-      <c r="J6">
-        <v>6.7</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>28.599999999999998</v>
-      </c>
-      <c r="L6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M6">
-        <v>5.4</v>
-      </c>
-      <c r="N6">
-        <v>5.8</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>5.6</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q14" si="2">SUM(L6:P6)</f>
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>7.2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>7.2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>8.1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>6.8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>8.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" ref="K7:K14" si="3">SUM(F7:J7)</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>6.1</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>6</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>7.4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <v>4.3</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>5.5</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <f t="shared" si="2"/>
         <v>29.3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>4.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>4.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>5.2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>8.5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>7.4</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>7.9</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>5.7</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>4.8</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>6.4</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>5.6</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="9">
         <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
@@ -1131,7 +1322,7 @@
         <v>9.5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>8.4</v>
@@ -1173,116 +1364,126 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>9</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>7.2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>7.2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>39.700000000000003</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>7.1</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>6.5</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>6.3</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>4.8</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>6.7</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
         <f t="shared" si="2"/>
         <v>31.4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>3.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>5.5</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8">
         <v>8.4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>5.6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>7.4</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>6.9</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <f t="shared" si="3"/>
         <v>37.1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>6.6</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="8">
         <v>8</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <v>7.2</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="8">
         <v>6.2</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="9">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="15" spans="1:17">
+      <c r="K15">
+        <f>MAX(K3:K14)</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="Q15">
+        <f>MAX(Q3:Q14)</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -1290,39 +1491,193 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>3.17</v>
+        <v>16.5</v>
       </c>
       <c r="C18">
-        <v>4.01</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>38.5</v>
+      </c>
+      <c r="E18">
+        <v>2.75</v>
+      </c>
+      <c r="F18">
+        <v>3.83</v>
+      </c>
+      <c r="G18">
+        <v>6.42</v>
+      </c>
+      <c r="H18">
+        <v>0.8125</v>
+      </c>
+      <c r="I18">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="J18">
+        <v>1.3947000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>3.17</v>
+        <v>21.5</v>
       </c>
       <c r="C19">
+        <v>24.5</v>
+      </c>
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>3.58</v>
+      </c>
+      <c r="F19">
+        <v>4.08</v>
+      </c>
+      <c r="G19">
+        <v>7.67</v>
+      </c>
+      <c r="H19">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="I19">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="J19">
+        <v>2.3462000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21">
+        <f ca="1">SUM(O2:Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>SUM(Q13:Q14)</f>
+        <v>63.4</v>
+      </c>
+      <c r="Q21">
+        <f ca="1">SUM(O21:P21)</f>
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>35.4</v>
+      </c>
+      <c r="C22">
+        <v>28.7</v>
+      </c>
+      <c r="D22">
+        <v>2.75</v>
+      </c>
+      <c r="E22">
         <v>3.83</v>
       </c>
-      <c r="D19">
-        <v>7</v>
+      <c r="F22">
+        <v>6.42</v>
+      </c>
+      <c r="O22">
+        <f>SUM(K3:K4)</f>
+        <v>59.8</v>
+      </c>
+      <c r="P22">
+        <f>SUM(Q3:Q4)</f>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>28.6</v>
+      </c>
+      <c r="D23">
+        <v>3.58</v>
+      </c>
+      <c r="E23">
+        <v>4.08</v>
+      </c>
+      <c r="F23">
+        <v>7.67</v>
+      </c>
+      <c r="O23">
+        <f>SUM(K9:K12)</f>
+        <v>150</v>
+      </c>
+      <c r="P23">
+        <f>SUM(Q9:Q12)</f>
+        <v>121.30000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="O24">
+        <f>SUM(O22:O23)</f>
+        <v>209.8</v>
+      </c>
+      <c r="P24">
+        <f>SUM(P22:P23)</f>
+        <v>171.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/卒論/グループデータ.xlsx
+++ b/卒論/グループデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kousuke/Documents/研究/卒論/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D627A-CA09-F646-AB0B-8DBF1541A052}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C7195-6488-104F-8463-44DD528AEF2D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{2413AD95-1A97-F945-AFA1-D52C16F62E22}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{2413AD95-1A97-F945-AFA1-D52C16F62E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>独創性</t>
     <rPh sb="0" eb="2">
@@ -253,6 +253,55 @@
     <t>合計分散</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均との差</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキントノサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左の２乗</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均との差</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキントンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左の２乗</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリノ２ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大値分散</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均値分散</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキンチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -743,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFC4AC2-BB28-C142-A064-0E867051E0D3}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -755,15 +804,15 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:21">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -795,25 +844,37 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -845,30 +906,43 @@
         <v>6.4</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">SUM(F3:J3)</f>
+        <f>SUM(F3:J3)</f>
         <v>31.199999999999996</v>
       </c>
       <c r="L3">
+        <f>SUM(K3)-B23</f>
+        <v>-3.8000000000000043</v>
+      </c>
+      <c r="M3">
+        <v>14.4</v>
+      </c>
+      <c r="N3">
         <v>6.9</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="N3">
-        <v>5.7</v>
-      </c>
-      <c r="O3">
-        <v>2.9</v>
       </c>
       <c r="P3">
         <v>5.7</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q4" si="1">SUM(L3:P3)</f>
+        <v>2.9</v>
+      </c>
+      <c r="R3">
+        <v>5.7</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="0">SUM(N3:R3)</f>
         <v>25.599999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="T3">
+        <v>-3</v>
+      </c>
+      <c r="U3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -900,30 +974,43 @@
         <v>6.7</v>
       </c>
       <c r="K4">
+        <f>SUM(F4:J4)</f>
+        <v>28.599999999999998</v>
+      </c>
+      <c r="L4">
+        <f>SUM(K4)-B23</f>
+        <v>-6.4000000000000021</v>
+      </c>
+      <c r="M4">
+        <v>40.96</v>
+      </c>
+      <c r="N4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O4">
+        <v>5.4</v>
+      </c>
+      <c r="P4">
+        <v>5.8</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>5.6</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
-        <v>28.599999999999998</v>
-      </c>
-      <c r="L4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M4">
-        <v>5.4</v>
-      </c>
-      <c r="N4">
-        <v>5.8</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>5.6</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
         <v>24.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="T4">
+        <v>-3.7</v>
+      </c>
+      <c r="U4">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,30 +1042,42 @@
         <v>6.7</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:J5)</f>
         <v>29.099999999999998</v>
       </c>
       <c r="L5" s="2">
+        <v>-6.3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>39.69</v>
+      </c>
+      <c r="N5" s="2">
         <v>6.5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>5.8</v>
       </c>
-      <c r="Q5" s="3">
-        <f>SUM(L5:P5)</f>
+      <c r="S5" s="3">
+        <f>SUM(N5:R5)</f>
         <v>25.400000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="T5" s="5">
+        <v>-3.3</v>
+      </c>
+      <c r="U5" s="5">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,30 +1109,42 @@
         <v>6.4</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:J6)</f>
         <v>31.5</v>
       </c>
       <c r="L6" s="5">
+        <v>-3.9</v>
+      </c>
+      <c r="M6" s="5">
+        <v>15.21</v>
+      </c>
+      <c r="N6" s="5">
         <v>5.5</v>
       </c>
-      <c r="M6" s="5">
+      <c r="O6" s="5">
         <v>4.7</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="5">
         <v>6.6</v>
       </c>
-      <c r="O6" s="5">
+      <c r="Q6" s="5">
         <v>3</v>
       </c>
-      <c r="P6" s="5">
+      <c r="R6" s="5">
         <v>5.5</v>
       </c>
-      <c r="Q6" s="6">
-        <f t="shared" ref="Q6:Q14" si="2">SUM(L6:P6)</f>
+      <c r="S6" s="6">
+        <f t="shared" ref="S6:S14" si="1">SUM(N6:R6)</f>
         <v>25.299999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="T6" s="5">
+        <v>-3.4</v>
+      </c>
+      <c r="U6" s="5">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1065,30 +1176,42 @@
         <v>8.5</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ref="K7:K14" si="3">SUM(F7:J7)</f>
+        <f>SUM(F7:J7)</f>
         <v>37.799999999999997</v>
       </c>
       <c r="L7" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5.76</v>
+      </c>
+      <c r="N7" s="5">
         <v>6.1</v>
       </c>
-      <c r="M7" s="5">
+      <c r="O7" s="5">
         <v>6</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="5">
         <v>7.4</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Q7" s="5">
         <v>4.3</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="5">
         <v>5.5</v>
       </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="2"/>
+      <c r="S7" s="6">
+        <f t="shared" si="1"/>
         <v>29.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="T7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1120,30 +1243,42 @@
         <v>7.9</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(F8:J8)</f>
         <v>37</v>
       </c>
       <c r="L8" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2.56</v>
+      </c>
+      <c r="N8" s="8">
         <v>5.7</v>
       </c>
-      <c r="M8" s="8">
+      <c r="O8" s="8">
         <v>4.8</v>
       </c>
-      <c r="N8" s="8">
+      <c r="P8" s="8">
         <v>6.4</v>
       </c>
-      <c r="O8" s="8">
+      <c r="Q8" s="8">
         <v>6</v>
       </c>
-      <c r="P8" s="8">
+      <c r="R8" s="8">
         <v>5.6</v>
       </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="2"/>
+      <c r="S8" s="9">
+        <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="T8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1175,30 +1310,43 @@
         <v>8.5</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f>SUM(F9:J9)</f>
         <v>36.900000000000006</v>
       </c>
       <c r="L9">
+        <f>SUM(K9-B23)</f>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="M9">
+        <v>3.61</v>
+      </c>
+      <c r="N9">
         <v>5.3</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>5.9</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>6.5</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>5.3</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>5.3</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
+      <c r="S9">
+        <f t="shared" si="1"/>
         <v>28.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="T9">
+        <v>-0.3</v>
+      </c>
+      <c r="U9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1230,30 +1378,43 @@
         <v>7.9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f>SUM(F10:J10)</f>
         <v>37.199999999999996</v>
       </c>
       <c r="L10">
+        <f>SUM(K10-B23)</f>
+        <v>2.1999999999999957</v>
+      </c>
+      <c r="M10">
+        <v>4.84</v>
+      </c>
+      <c r="N10">
         <v>6.6</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>7.3</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>5.8</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
+      <c r="S10">
+        <f t="shared" si="1"/>
         <v>29.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1285,30 +1446,43 @@
         <v>6.9</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f>SUM(F11:J11)</f>
         <v>38.4</v>
       </c>
       <c r="L11">
+        <f>SUM(K11-B23)</f>
+        <v>3.3999999999999986</v>
+      </c>
+      <c r="M11">
+        <v>11.56</v>
+      </c>
+      <c r="N11">
         <v>5.6</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>5.8</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>5.5</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>5.9</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
+      <c r="S11">
+        <f t="shared" si="1"/>
         <v>29.799999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="T11">
+        <v>1.2</v>
+      </c>
+      <c r="U11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1340,30 +1514,43 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f>SUM(F12:J12)</f>
         <v>37.5</v>
       </c>
       <c r="L12">
+        <f>SUM(K12-B23)</f>
+        <v>2.5</v>
+      </c>
+      <c r="M12">
+        <v>6.25</v>
+      </c>
+      <c r="N12">
         <v>8.1</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>4.7</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>7.2</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>6.5</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>7.1</v>
       </c>
-      <c r="Q12">
-        <f>SUM(L12:P12)</f>
+      <c r="S12">
+        <f>SUM(N12:R12)</f>
         <v>33.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,30 +1582,42 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(F13:J13)</f>
         <v>39.700000000000003</v>
       </c>
       <c r="L13" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="N13" s="2">
         <v>7.1</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>6.5</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>6.3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>4.8</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>6.7</v>
       </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="2"/>
+      <c r="S13" s="3">
+        <f t="shared" si="1"/>
         <v>31.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="T13" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="U13" s="5">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1450,40 +1649,52 @@
         <v>6.9</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(F14:J14)</f>
         <v>37.1</v>
       </c>
       <c r="L14" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="N14" s="8">
         <v>6.6</v>
       </c>
-      <c r="M14" s="8">
+      <c r="O14" s="8">
         <v>4</v>
       </c>
-      <c r="N14" s="8">
+      <c r="P14" s="8">
         <v>8</v>
       </c>
-      <c r="O14" s="8">
+      <c r="Q14" s="8">
         <v>7.2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="R14" s="8">
         <v>6.2</v>
       </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="2"/>
+      <c r="S14" s="9">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="T14" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="U14" s="5">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="K15">
         <f>MAX(K3:K14)</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="Q15">
-        <f>MAX(Q3:Q14)</f>
+      <c r="S15">
+        <f>MAX(S3:S14)</f>
         <v>33.6</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:21">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1755,7 @@
         <v>1.3947000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1576,7 +1787,7 @@
         <v>2.3462000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:21">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -1584,28 +1795,34 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>31</v>
       </c>
-      <c r="O21">
-        <f ca="1">SUM(O2:Q21)</f>
+      <c r="S21">
+        <f ca="1">SUM(Q2:S21)</f>
         <v>0</v>
       </c>
-      <c r="P21">
-        <f>SUM(Q13:Q14)</f>
+      <c r="T21">
+        <f>SUM(S13:S14)</f>
         <v>63.4</v>
       </c>
-      <c r="Q21">
-        <f ca="1">SUM(O21:P21)</f>
+      <c r="U21">
+        <f ca="1">SUM(S21:T21)</f>
         <v>171.9</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1616,24 +1833,30 @@
         <v>28.7</v>
       </c>
       <c r="D22">
+        <v>14.1</v>
+      </c>
+      <c r="E22">
+        <v>6.83833</v>
+      </c>
+      <c r="F22">
         <v>2.75</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>3.83</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>6.42</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <f>SUM(K3:K4)</f>
         <v>59.8</v>
       </c>
-      <c r="P22">
-        <f>SUM(Q3:Q4)</f>
+      <c r="T22">
+        <f>SUM(S3:S4)</f>
         <v>50.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1644,36 +1867,80 @@
         <v>28.6</v>
       </c>
       <c r="D23">
+        <v>13.6</v>
+      </c>
+      <c r="E23">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="F23">
         <v>3.58</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>4.08</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>7.67</v>
       </c>
-      <c r="O23">
+      <c r="S23">
         <f>SUM(K9:K12)</f>
         <v>150</v>
       </c>
-      <c r="P23">
-        <f>SUM(Q9:Q12)</f>
+      <c r="T23">
+        <f>SUM(S9:S12)</f>
         <v>121.30000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="O24">
-        <f>SUM(O22:O23)</f>
+    <row r="24" spans="1:21">
+      <c r="Q24">
+        <f>SUM(S22:S23)</f>
         <v>209.8</v>
       </c>
-      <c r="P24">
-        <f>SUM(P22:P23)</f>
+      <c r="R24">
+        <f>SUM(T22:T23)</f>
         <v>171.8</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:21">
+      <c r="C27">
+        <f>SUM(K3:K4)</f>
+        <v>59.8</v>
+      </c>
       <c r="J27" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28">
+        <f>SUM(K9:K12)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="G31">
+        <v>81.62</v>
+      </c>
+      <c r="H31">
+        <v>50.22</v>
+      </c>
+      <c r="I31">
+        <v>41.03</v>
+      </c>
+      <c r="J31">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32">
+        <v>13.603300000000001</v>
+      </c>
+      <c r="H32">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="J32">
+        <v>14.1</v>
       </c>
     </row>
   </sheetData>
